--- a/BackTest/2020-01-14 BackTest CON.xlsx
+++ b/BackTest/2020-01-14 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>273528.5778000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>231589.0558000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>272138.8708000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>272138.8708000001</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>203226.6558000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>238770.3208000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>238770.3208000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>195216.8158000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>265803.5308000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>382943.4870000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>418987.7670000001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>494580.6320000001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>512092.6055000001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>696996.1990000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>781432.0741000001</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>732371.8041000001</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>779429.6141000001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>816975.7391000001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>769417.3141000001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>710845.3591000001</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>774924.0791000001</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>813471.4341000001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>736376.7241000001</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>684813.3791000001</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>611222.9741000001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>611222.9741000001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>676767.4951000001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>603677.7051</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>662750.2751</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>118271.2707545668</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>176342.6107545668</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>208381.9707545668</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>177343.8407545668</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>122276.1907545668</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>253440.9448529275</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>185857.9198529275</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>236920.6498529275</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>196871.4498529275</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>196871.4498529275</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>227408.9648529275</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>193867.7598529275</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>228410.1948529275</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>309285.5488529275</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>110541.3938529275</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>69991.57885292746</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1407.323852927453</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-56163.40114707255</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-11108.05114707255</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>30442.99385292745</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-28878.58114707255</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>33197.67885292746</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-68927.78114707256</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-103970.8311470726</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-59916.71114707256</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>657.7038529274432</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-48654.87614707252</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>29441.06385292748</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-24124.74114707252</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-56664.71614707252</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>6913.388852927485</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-56164.10114707251</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>9416.463852927489</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-42647.49614707251</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>48965.04885292749</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>125559.1438529275</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>55973.65885292749</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>137573.9038529275</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>87512.4038529275</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>49465.6638529275</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>119551.7638529275</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>120112.4528529275</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-21060.97714707248</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-139206.1171470725</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-266862.9421470725</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-225812.5121470725</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-266362.3271470725</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-337950.2721470725</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-295397.9971470725</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-266862.9421470725</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-196276.2271470725</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-139206.1171470725</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-102200.6561470724</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-177793.5211470724</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-177793.5211470724</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-100198.1961470724</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-150259.6961470724</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-101199.4261470724</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-148257.2361470724</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-110711.1111470724</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-109926.1471470724</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-157484.5721470724</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-216056.5271470724</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-151977.8071470724</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-190525.1621470724</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-113430.4521470724</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-164993.7971470724</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-164993.7971470724</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-102416.9221470724</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>35752.81785292755</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-23319.75214707245</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-69376.33214707245</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-11304.99214707245</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-43344.35214707245</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-25379.90114707245</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>25682.82885292755</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-14366.37114707244</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-14366.37114707244</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>16171.14385292755</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-17370.06114707245</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>17172.37385292755</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-19873.13614707245</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>23179.75385292755</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>95268.31385292755</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>47209.27385292754</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>125805.8288529275</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>205904.2288529275</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>137319.9738529275</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>79749.24885292753</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>125397.3268529275</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>31281.70685292754</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>93357.96685292755</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>25274.32685292755</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>25274.32685292755</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>69328.44685292756</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>129902.8618529276</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-18779.79314707243</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>27777.40185292757</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>88852.43185292758</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>12758.95185292758</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-18779.79314707242</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>56312.45685292759</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>123394.8668529276</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>187974.2018529276</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>131524.8548529276</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>71951.66985292759</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>18886.47985292759</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>91475.65485292759</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>25394.4748529276</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>79460.89485292759</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-22163.95014707241</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>28398.16485292759</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-49697.77514707241</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>3868.02985292759</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-92250.05014707241</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-155327.5401470724</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-89746.9751470724</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-37683.0151470724</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-87243.9001470724</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-45192.2401470724</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>31802.3468529276</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-37783.1381470724</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>10776.5168529276</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>93878.60685292759</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>131925.3468529276</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>61839.24685292758</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>141437.0318529276</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>203012.6768529276</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>84867.53685292757</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>13780.20685292757</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>70349.70185292757</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>29299.27185292757</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-82838.48814707244</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-40286.21314707243</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-75829.87814707244</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-39284.98314707244</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-82838.48814707244</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-11683.07414707243</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-68753.18414707243</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-104797.4641470724</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-29204.59914707243</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-98289.46914707242</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>23860.59085292758</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>78427.62585292758</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>18353.82585292758</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-30706.44414707242</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>16351.36585292758</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>16877.46385292758</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-20668.66114707242</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>26889.76385292758</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-31682.19114707242</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>32396.52885292758</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-6150.826147072425</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-54209.86614707242</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>21382.99885292757</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-37689.57114707243</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>8367.008852927574</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-82536.66514707243</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-82536.66514707243</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-137604.3151470724</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-70021.29014707243</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-70021.29014707243</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-110070.4901470724</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-43488.69514707243</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-12951.18014707243</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>20590.02485292757</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-225500.7666470724</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-266299.7401470724</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-366299.7401470724</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-323246.8501470724</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-196158.2901470724</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-325813.8851470724</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-331613.8851470724</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-414288.5531470724</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-453837.1381470724</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-375252.8831470724</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-252756.5396470724</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-294307.5846470724</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-241743.0096470724</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-337861.0896470724</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-405944.7296470724</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-370901.6796470724</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-414955.7996470724</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-353846.0296470724</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-427937.0496470724</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-549085.8796470724</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-488010.8496470724</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-564104.3296470724</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-532565.5846470724</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-532565.5846470724</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-465483.1746470723</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-530062.5096470723</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-474494.2446470723</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-414921.0596470723</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-467986.2496470723</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-395397.0746470723</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-461478.2546470723</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-461478.2546470723</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-507034.2196470723</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-563103.0996470723</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-613665.2146470723</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-535569.2746470722</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-589135.0796470722</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-666064.0159470723</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1193630.855547072</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1015214.926147072</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1078292.416147072</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1077964.013147072</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1156890.719347072</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1267689.256247072</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1218128.371247072</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1336774.126247072</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1151169.216647072</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1199728.871647072</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1199728.871647072</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1199728.871647072</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1359280.278447072</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1359280.278447072</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1471301.946547072</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1567415.217647072</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1568031.975647072</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1568031.975647072</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2054345.942647072</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2160270.496347072</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2098694.851347072</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2177792.021347072</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2542354.018247072</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2542354.018247072</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2513924.018247072</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2570493.513247072</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2529443.083247072</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2529443.083247072</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -14377,10 +14377,14 @@
         <v>-6900011.886547073</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>3.418</v>
+      </c>
+      <c r="J424" t="n">
+        <v>3.418</v>
+      </c>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
@@ -14410,11 +14414,19 @@
         <v>-6834931.936547073</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="J425" t="n">
+        <v>3.418</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14455,19 @@
         <v>-6761842.146547073</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>3.418</v>
+      </c>
+      <c r="J426" t="n">
+        <v>3.418</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,10 +14496,14 @@
         <v>-6761842.146547073</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="J427" t="n">
+        <v>3.419</v>
+      </c>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
@@ -14512,8 +14536,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,15 +14572,19 @@
         <v>-6865970.066547072</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>3.417</v>
       </c>
       <c r="J429" t="n">
-        <v>3.417</v>
-      </c>
-      <c r="K429" t="inlineStr"/>
+        <v>3.419</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,19 +14613,15 @@
         <v>-6865970.066547072</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>3.416</v>
       </c>
       <c r="J430" t="n">
-        <v>3.417</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.416</v>
+      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14620,13 +14650,13 @@
         <v>-7132636.508447072</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>3.416</v>
       </c>
       <c r="J431" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14661,13 +14691,13 @@
         <v>-7064932.118147072</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>3.415</v>
       </c>
       <c r="J432" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14702,13 +14732,13 @@
         <v>-7064932.118147072</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>3.417</v>
       </c>
       <c r="J433" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -14743,13 +14773,13 @@
         <v>-6989938.866547072</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>3.417</v>
       </c>
       <c r="J434" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -14784,13 +14814,13 @@
         <v>-6898826.936547073</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>3.42</v>
       </c>
       <c r="J435" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -14825,13 +14855,13 @@
         <v>-6965608.731547073</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>3.437</v>
       </c>
       <c r="J436" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -14866,13 +14896,13 @@
         <v>-6927050.355447073</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>3.436</v>
       </c>
       <c r="J437" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -14911,7 +14941,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -14946,11 +14976,13 @@
         <v>-6995133.995447072</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3.441</v>
+      </c>
       <c r="J439" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -14985,11 +15017,13 @@
         <v>-6958088.485447072</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3.431</v>
+      </c>
       <c r="J440" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15024,11 +15058,13 @@
         <v>-6842947.035447072</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3.458</v>
+      </c>
       <c r="J441" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15063,11 +15099,13 @@
         <v>-6891006.075447072</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3.46</v>
+      </c>
       <c r="J442" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15102,11 +15140,13 @@
         <v>-6812409.520447073</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3.435</v>
+      </c>
       <c r="J443" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15145,7 +15185,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15184,7 +15224,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15219,13 +15259,11 @@
         <v>-7000640.760447073</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3.451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15260,13 +15298,11 @@
         <v>-6943070.035447073</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>3.433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15305,7 +15341,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15344,7 +15380,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15383,7 +15419,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15422,7 +15458,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15461,7 +15497,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15500,7 +15536,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15539,7 +15575,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15578,7 +15614,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15617,7 +15653,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15656,7 +15692,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15695,7 +15731,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15734,7 +15770,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15773,7 +15809,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -15812,7 +15848,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -15851,7 +15887,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -15890,7 +15926,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -15929,7 +15965,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -15968,7 +16004,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16007,7 +16043,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16046,7 +16082,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16085,7 +16121,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16124,7 +16160,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16163,7 +16199,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16202,7 +16238,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16241,7 +16277,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16280,7 +16316,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16315,13 +16351,11 @@
         <v>-7143043.701447071</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>3.432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16356,13 +16390,11 @@
         <v>-7196609.50644707</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>3.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16397,13 +16429,11 @@
         <v>-7164069.531447071</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>3.434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16438,13 +16468,11 @@
         <v>-7100491.42644707</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>3.439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16479,13 +16507,11 @@
         <v>-7163568.91644707</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>3.446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16520,13 +16546,11 @@
         <v>-7097988.35144707</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>3.436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16565,7 +16589,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16604,7 +16628,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16643,7 +16667,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16682,7 +16706,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16721,7 +16745,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16760,7 +16784,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16799,7 +16823,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16838,7 +16862,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16877,7 +16901,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16916,7 +16940,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16955,7 +16979,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16994,7 +17018,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17033,7 +17057,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17072,7 +17096,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17111,7 +17135,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17150,7 +17174,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17189,7 +17213,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17228,7 +17252,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17267,7 +17291,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17306,7 +17330,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17345,7 +17369,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17384,7 +17408,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17423,7 +17447,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17462,7 +17486,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17501,7 +17525,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17540,7 +17564,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17579,7 +17603,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17618,7 +17642,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17657,7 +17681,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17696,7 +17720,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17735,7 +17759,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17774,7 +17798,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17813,7 +17837,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17852,7 +17876,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17891,7 +17915,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17930,7 +17954,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17969,7 +17993,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18008,7 +18032,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18047,7 +18071,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18086,7 +18110,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18125,7 +18149,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18164,7 +18188,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18203,7 +18227,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18242,7 +18266,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18281,7 +18305,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18320,7 +18344,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18359,7 +18383,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18398,7 +18422,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18437,7 +18461,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18476,7 +18500,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18515,7 +18539,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18554,7 +18578,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18593,7 +18617,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18632,7 +18656,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18671,7 +18695,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18710,7 +18734,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18749,7 +18773,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18788,7 +18812,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18827,7 +18851,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18866,7 +18890,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18905,7 +18929,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18944,7 +18968,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18983,7 +19007,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19022,7 +19046,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19061,7 +19085,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19100,7 +19124,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19139,7 +19163,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19178,7 +19202,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19217,7 +19241,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19256,7 +19280,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19295,7 +19319,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19334,7 +19358,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19373,7 +19397,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19412,7 +19436,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19451,7 +19475,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19490,7 +19514,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19529,7 +19553,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19568,7 +19592,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19607,7 +19631,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19646,7 +19670,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19685,7 +19709,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19724,7 +19748,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19763,7 +19787,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19802,7 +19826,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19841,7 +19865,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19880,7 +19904,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19919,7 +19943,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19958,7 +19982,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19997,7 +20021,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20036,7 +20060,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20075,7 +20099,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20114,7 +20138,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20153,7 +20177,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20192,7 +20216,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20231,7 +20255,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20270,7 +20294,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20309,7 +20333,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20348,7 +20372,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20387,7 +20411,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20426,7 +20450,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20465,7 +20489,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20504,7 +20528,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20543,7 +20567,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20582,7 +20606,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20621,7 +20645,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20660,7 +20684,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20699,7 +20723,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20738,7 +20762,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20777,7 +20801,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20816,7 +20840,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20855,7 +20879,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20894,7 +20918,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20933,7 +20957,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20972,7 +20996,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -21011,7 +21035,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -21050,7 +21074,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -21089,7 +21113,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -21128,7 +21152,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -21167,7 +21191,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -21206,7 +21230,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21245,7 +21269,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21284,7 +21308,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21323,7 +21347,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21362,7 +21386,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21401,7 +21425,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21440,7 +21464,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21479,7 +21503,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21518,7 +21542,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21557,7 +21581,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21596,7 +21620,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21635,7 +21659,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21674,7 +21698,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21713,7 +21737,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21752,7 +21776,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21791,7 +21815,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -21830,7 +21854,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -21869,7 +21893,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21908,7 +21932,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21947,7 +21971,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21986,7 +22010,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -22025,7 +22049,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -22064,7 +22088,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -22103,7 +22127,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -22142,7 +22166,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -22181,7 +22205,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -22220,7 +22244,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -22259,7 +22283,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -22298,7 +22322,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22337,7 +22361,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22376,7 +22400,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22415,7 +22439,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22454,7 +22478,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22493,7 +22517,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22532,7 +22556,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22571,7 +22595,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22610,7 +22634,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22649,7 +22673,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22688,7 +22712,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22727,7 +22751,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22766,7 +22790,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22801,11 +22825,13 @@
         <v>-7615742.450347071</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>3.458</v>
+      </c>
       <c r="J640" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22844,7 +22870,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22883,7 +22909,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22922,7 +22948,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22961,7 +22987,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -23000,7 +23026,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -23039,7 +23065,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -23078,7 +23104,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -23117,7 +23143,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -23156,7 +23182,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -23195,7 +23221,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -23234,7 +23260,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -23273,7 +23299,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -23312,7 +23338,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -23351,7 +23377,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -23390,7 +23416,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23429,7 +23455,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23468,7 +23494,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -23507,7 +23533,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23546,7 +23572,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23585,7 +23611,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23624,7 +23650,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23663,7 +23689,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23702,7 +23728,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23741,7 +23767,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23780,7 +23806,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23819,7 +23845,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23858,7 +23884,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23897,7 +23923,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23936,7 +23962,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23975,7 +24001,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -24014,7 +24040,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -24053,7 +24079,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -24092,7 +24118,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -24131,7 +24157,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -24170,7 +24196,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -24209,7 +24235,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -24248,7 +24274,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -24287,7 +24313,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -24326,7 +24352,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -24365,7 +24391,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -24404,7 +24430,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -24443,7 +24469,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -24482,7 +24508,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -24521,7 +24547,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -24560,7 +24586,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -24599,7 +24625,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24638,7 +24664,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -24677,7 +24703,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24716,7 +24742,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24755,7 +24781,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -24794,7 +24820,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -24833,7 +24859,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24872,7 +24898,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24911,7 +24937,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24950,7 +24976,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24989,7 +25015,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -25028,7 +25054,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -25067,7 +25093,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -25106,7 +25132,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -25145,7 +25171,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -25184,7 +25210,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -25223,7 +25249,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -25262,7 +25288,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -25301,7 +25327,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -25340,7 +25366,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -25379,7 +25405,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -25418,7 +25444,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -25457,7 +25483,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -25496,7 +25522,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -25535,7 +25561,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -25574,7 +25600,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -25613,7 +25639,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -25652,7 +25678,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -25691,7 +25717,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -25730,7 +25756,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -25769,7 +25795,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -25808,7 +25834,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -25847,7 +25873,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -25886,7 +25912,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -25925,7 +25951,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25964,7 +25990,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -26003,7 +26029,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -26042,7 +26068,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -26081,7 +26107,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -26120,7 +26146,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -26159,7 +26185,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -26198,7 +26224,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -26237,7 +26263,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -26276,7 +26302,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -26315,7 +26341,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -26354,7 +26380,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -26393,7 +26419,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -26432,7 +26458,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -26471,7 +26497,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -26510,7 +26536,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -26549,7 +26575,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -26588,7 +26614,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -26627,7 +26653,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -26666,7 +26692,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -26705,7 +26731,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -26744,7 +26770,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -26783,7 +26809,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -26822,7 +26848,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -26861,7 +26887,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -26900,7 +26926,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26939,7 +26965,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -26978,7 +27004,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -27017,7 +27043,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -27056,7 +27082,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -27095,7 +27121,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -27134,7 +27160,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -27173,7 +27199,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -27212,7 +27238,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -27251,7 +27277,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -27290,7 +27316,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -27329,7 +27355,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -27368,7 +27394,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -27407,7 +27433,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -27446,7 +27472,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -27485,7 +27511,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -27524,7 +27550,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -27563,7 +27589,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -27602,7 +27628,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -27641,7 +27667,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -27680,7 +27706,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -27719,7 +27745,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -27758,7 +27784,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -27797,7 +27823,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -27836,7 +27862,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -27875,7 +27901,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -27914,7 +27940,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -27953,7 +27979,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -27992,7 +28018,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -28031,7 +28057,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -28070,7 +28096,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -28109,7 +28135,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -28148,7 +28174,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -28187,7 +28213,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -28226,7 +28252,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -28265,7 +28291,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -28304,7 +28330,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -28343,7 +28369,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -28382,7 +28408,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -28421,7 +28447,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -28460,7 +28486,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -28499,7 +28525,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -28538,7 +28564,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -28577,7 +28603,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -28616,7 +28642,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -28655,7 +28681,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -28694,7 +28720,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -28733,7 +28759,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -28772,7 +28798,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -28811,7 +28837,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -28850,7 +28876,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -28889,7 +28915,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -28928,7 +28954,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -28967,7 +28993,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -29006,7 +29032,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -29045,7 +29071,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -29084,7 +29110,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -29123,7 +29149,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -29162,7 +29188,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -29201,7 +29227,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -29240,7 +29266,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -29279,7 +29305,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -29318,7 +29344,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -29357,7 +29383,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -29396,7 +29422,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -29435,7 +29461,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -29474,7 +29500,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -29513,7 +29539,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -29552,7 +29578,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -29591,7 +29617,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -29630,7 +29656,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -29669,7 +29695,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -29708,7 +29734,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -29747,7 +29773,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -29786,7 +29812,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -29825,7 +29851,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -29864,7 +29890,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -29903,7 +29929,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -29942,7 +29968,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -29981,7 +30007,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -30020,7 +30046,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -30059,7 +30085,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -30098,7 +30124,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -30137,7 +30163,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -30176,7 +30202,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -30215,7 +30241,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -30254,7 +30280,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -30293,7 +30319,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -30332,7 +30358,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -30371,7 +30397,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -30410,7 +30436,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -30449,7 +30475,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -30488,7 +30514,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -30527,7 +30553,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -30566,7 +30592,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -30605,7 +30631,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -30644,7 +30670,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -30683,7 +30709,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -30722,7 +30748,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -30761,7 +30787,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -30800,7 +30826,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -30839,7 +30865,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -30878,7 +30904,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -30917,7 +30943,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -30956,7 +30982,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -30995,7 +31021,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -31034,7 +31060,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -31073,7 +31099,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -31112,7 +31138,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -31151,7 +31177,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -31190,7 +31216,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -31229,7 +31255,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -31268,7 +31294,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -31307,7 +31333,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -31346,7 +31372,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -31385,7 +31411,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -31424,7 +31450,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -31463,7 +31489,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -31502,7 +31528,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -31541,7 +31567,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -31580,7 +31606,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -31619,7 +31645,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -31658,7 +31684,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -31697,7 +31723,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -31736,7 +31762,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -31775,7 +31801,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -31814,7 +31840,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -31853,7 +31879,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -31892,7 +31918,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -31931,7 +31957,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>3.417</v>
+        <v>3.416</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -31944,6 +31970,6 @@
       <c r="M874" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest CON.xlsx
+++ b/BackTest/2020-01-14 BackTest CON.xlsx
@@ -451,7 +451,7 @@
         <v>273528.5778000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>231589.0558000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>272138.8708000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>272138.8708000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>203226.6558000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>238770.3208000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>238770.3208000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>195216.8158000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>265803.5308000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>382943.4870000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>418987.7670000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>494580.6320000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>512092.6055000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>696996.1990000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>781432.0741000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>732371.8041000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>779429.6141000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>816975.7391000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>769417.3141000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>710845.3591000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>774924.0791000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>813471.4341000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>736376.7241000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>684813.3791000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>611222.9741000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>611222.9741000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>676767.4951000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>603677.7051</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>662750.2751</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>118271.2707545668</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>176342.6107545668</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>208381.9707545668</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>177343.8407545668</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>122276.1907545668</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>253440.9448529275</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>185857.9198529275</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>236920.6498529275</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>196871.4498529275</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>196871.4498529275</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>227408.9648529275</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>193867.7598529275</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>228410.1948529275</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>265455.7048529275</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>309285.5488529275</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>189137.9488529275</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>110541.3938529275</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>30442.99385292747</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>69991.57885292746</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1407.323852927453</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-56163.40114707255</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-11108.05114707255</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>30442.99385292745</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-28878.58114707255</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>33197.67885292746</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-68927.78114707256</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-103970.8311470726</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-59916.71114707256</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>657.7038529274432</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>74748.72385292745</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>157.0888529274525</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-107475.1361470726</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-30716.83914707255</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-62255.58414707254</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>12836.66585292746</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-54245.74414707255</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-118825.0791470725</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-63256.81414707254</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-122829.9991470725</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2824.365852927469</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-63256.81414707252</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8605.676147072525</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-54161.64114707252</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1907.238852927476</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-48654.87614707252</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>29441.06385292748</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-24124.74114707252</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-56664.71614707252</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>6913.388852927485</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-56164.10114707251</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>9416.463852927489</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-42647.49614707251</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>48965.04885292749</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>125559.1438529275</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>55973.65885292749</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>137573.9038529275</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>87512.4038529275</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>49465.6638529275</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>119551.7638529275</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>120112.4528529275</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-21060.97714707248</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-100158.1471470725</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-139206.1171470725</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-210293.4471470725</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-266862.9421470725</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-225812.5121470725</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-266362.3271470725</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-337950.2721470725</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-295397.9971470725</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-223309.4371470725</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-266862.9421470725</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-196276.2271470725</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-139206.1171470725</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-102200.6561470724</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-177793.5211470724</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-177793.5211470724</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-100198.1961470724</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-144752.9311470724</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-90185.89614707243</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-150259.6961470724</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-101199.4261470724</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-148257.2361470724</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-110711.1111470724</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-109926.1471470724</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-157484.5721470724</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-216056.5271470724</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-151977.8071470724</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-190525.1621470724</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-113430.4521470724</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-164993.7971470724</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-164993.7971470724</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-102416.9221470724</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-37336.97214707245</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>35752.81785292755</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-23319.75214707245</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-69376.33214707245</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-11304.99214707245</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-43344.35214707245</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>42761.42785292755</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-25379.90114707245</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>25682.82885292755</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-14366.37114707244</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-14366.37114707244</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>16171.14385292755</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-17370.06114707245</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>17172.37385292755</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-19873.13614707245</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>23179.75385292755</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>95268.31385292755</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>47209.27385292754</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>125805.8288529275</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>205904.2288529275</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>137319.9738529275</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>79749.24885292753</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>125397.3268529275</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>31281.70685292754</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>93357.96685292755</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>25274.32685292755</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>25274.32685292755</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>69328.44685292756</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>129902.8618529276</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-18779.79314707243</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>27777.40185292757</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>88852.43185292758</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>12758.95185292758</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-18779.79314707242</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>56312.45685292759</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>123394.8668529276</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>187974.2018529276</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>131524.8548529276</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>71951.66985292759</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>18886.47985292759</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>91475.65485292759</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>25394.4748529276</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>79460.89485292759</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-22163.95014707241</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>28398.16485292759</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-49697.77514707241</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>3868.02985292759</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-92250.05014707241</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-155327.5401470724</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-89746.9751470724</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-37683.0151470724</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-87243.9001470724</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-45192.2401470724</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>31802.3468529276</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-37783.1381470724</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>10776.5168529276</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>93878.60685292759</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>131925.3468529276</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>61839.24685292758</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>141437.0318529276</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>203012.6768529276</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>123915.5068529276</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>84867.53685292757</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>13780.20685292757</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>70349.70185292757</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>29299.27185292757</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-11250.54314707244</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-82838.48814707244</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-40286.21314707243</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-75829.87814707244</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-39284.98314707244</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-82838.48814707244</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-11683.07414707243</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-68753.18414707243</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-104797.4641470724</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-29204.59914707243</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-98289.46914707242</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>23860.59085292758</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>78427.62585292758</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>18353.82585292758</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-30706.44414707242</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>16351.36585292758</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>16877.46385292758</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-20668.66114707242</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>26889.76385292758</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-31682.19114707242</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>32396.52885292758</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-6150.826147072425</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>70943.88385292758</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-54209.86614707242</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-116786.7411470724</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>21382.99885292757</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-37689.57114707243</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>8367.008852927574</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-82536.66514707243</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-82536.66514707243</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-137604.3151470724</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-70021.29014707243</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-70021.29014707243</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-110070.4901470724</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-43488.69514707243</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-12951.18014707243</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>20590.02485292757</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-225500.7666470724</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-266299.7401470724</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-366299.7401470724</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-323246.8501470724</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-196158.2901470724</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-325813.8851470724</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-331613.8851470724</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-414288.5531470724</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-453837.1381470724</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-294307.5846470724</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-241743.0096470724</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-337861.0896470724</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-405944.7296470724</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-414955.7996470724</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-353846.0296470724</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-427937.0496470724</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-549085.8796470724</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-488010.8496470724</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-564104.3296470724</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-532565.5846470724</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-467986.2496470723</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-395397.0746470723</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-461478.2546470723</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-461478.2546470723</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-507034.2196470723</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-563103.0996470723</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -15763,10 +15763,14 @@
         <v>-7295074.469447072</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="J466" t="n">
+        <v>3.44</v>
+      </c>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
@@ -15796,11 +15800,19 @@
         <v>-7242009.279447071</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>3.435</v>
+      </c>
+      <c r="J467" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +15841,19 @@
         <v>-7169075.681447071</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="J468" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,10 +15882,14 @@
         <v>-7235156.861447071</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="J469" t="n">
+        <v>3.442</v>
+      </c>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
@@ -15895,11 +15919,19 @@
         <v>-7181090.441447071</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>3.432</v>
+      </c>
+      <c r="J470" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +15960,19 @@
         <v>-7226646.406447071</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>3.448</v>
+      </c>
+      <c r="J471" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,10 +16001,14 @@
         <v>-7170577.526447071</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="J472" t="n">
+        <v>3.431</v>
+      </c>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
@@ -15994,11 +16038,19 @@
         <v>-7221139.641447071</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="J473" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16079,19 @@
         <v>-7143043.701447071</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>3.432</v>
+      </c>
+      <c r="J474" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,10 +16120,14 @@
         <v>-7196609.50644707</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="J475" t="n">
+        <v>3.44</v>
+      </c>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
@@ -16093,11 +16157,19 @@
         <v>-7164069.531447071</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>3.434</v>
+      </c>
+      <c r="J476" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16198,19 @@
         <v>-7100491.42644707</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="J477" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,10 +16239,14 @@
         <v>-7163568.91644707</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="J478" t="n">
+        <v>3.446</v>
+      </c>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
@@ -16192,11 +16276,19 @@
         <v>-7097988.35144707</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="J479" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16317,19 @@
         <v>-6996363.50644707</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>3.438</v>
+      </c>
+      <c r="J480" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16358,19 @@
         <v>-6954311.84644707</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>3.443</v>
+      </c>
+      <c r="J481" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16399,19 @@
         <v>-7030905.94144707</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>3.447</v>
+      </c>
+      <c r="J482" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16440,19 @@
         <v>-6961320.45644707</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="J483" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16481,19 @@
         <v>-6840857.145247069</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>3.447</v>
+      </c>
+      <c r="J484" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16522,19 @@
         <v>-6807816.555247069</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J485" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16563,19 @@
         <v>-6757755.055247069</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>3.452</v>
+      </c>
+      <c r="J486" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16459,8 +16607,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16492,8 +16646,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16525,8 +16685,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16558,8 +16724,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16591,8 +16763,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16624,8 +16802,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16657,8 +16841,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16690,8 +16880,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16723,8 +16919,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16756,8 +16958,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16789,8 +16997,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16822,8 +17036,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16855,8 +17075,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16888,8 +17114,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16921,8 +17153,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16954,8 +17192,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16987,8 +17231,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17020,8 +17270,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17053,8 +17309,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17086,8 +17348,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17119,8 +17387,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17152,8 +17426,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17185,8 +17465,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17218,8 +17504,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17251,8 +17543,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17284,8 +17582,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17317,8 +17621,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17350,8 +17660,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17383,8 +17699,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17416,8 +17738,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17449,8 +17777,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17482,8 +17816,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17515,8 +17855,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17548,8 +17894,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17581,8 +17933,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17614,8 +17972,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17647,8 +18011,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17680,8 +18050,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17713,8 +18089,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17746,8 +18128,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17779,8 +18167,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17812,8 +18206,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17845,8 +18245,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17878,8 +18284,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17911,8 +18323,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17944,8 +18362,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17977,8 +18401,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18010,8 +18440,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18043,8 +18479,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18076,8 +18518,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18109,8 +18557,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18142,8 +18596,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18175,8 +18635,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18208,8 +18674,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18241,8 +18713,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18274,8 +18752,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18307,8 +18791,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18340,8 +18830,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18373,8 +18869,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18406,8 +18908,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18439,8 +18947,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18472,8 +18986,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18505,8 +19025,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18538,8 +19064,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18571,8 +19103,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18604,8 +19142,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18637,8 +19181,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18670,8 +19220,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18703,8 +19259,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18736,8 +19298,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18769,8 +19337,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18802,8 +19376,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18835,8 +19415,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18868,8 +19454,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18901,8 +19493,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18934,8 +19532,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18967,8 +19571,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19000,8 +19610,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19033,8 +19649,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19066,8 +19688,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19099,8 +19727,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19132,8 +19766,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19165,8 +19805,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19198,8 +19844,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19231,8 +19883,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19264,8 +19922,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19297,8 +19961,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19330,8 +20000,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19363,8 +20039,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19396,8 +20078,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19429,8 +20117,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19462,8 +20156,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19495,8 +20195,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19528,8 +20234,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19561,8 +20273,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19594,8 +20312,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19627,8 +20351,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19660,8 +20390,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19693,8 +20429,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19726,8 +20468,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19759,8 +20507,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19792,8 +20546,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19825,8 +20585,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19858,8 +20624,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19891,8 +20663,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19924,8 +20702,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19957,8 +20741,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19990,8 +20780,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +20819,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20056,8 +20858,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20089,8 +20897,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20122,8 +20936,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20155,8 +20975,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20188,8 +21014,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20221,8 +21053,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20254,8 +21092,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20287,8 +21131,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +21170,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +21209,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +21248,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +21287,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +21326,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +21365,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20518,8 +21404,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20551,8 +21443,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20584,8 +21482,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20617,8 +21521,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20650,8 +21560,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20683,8 +21599,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20716,8 +21638,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20749,8 +21677,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20782,8 +21716,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +21755,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20848,8 +21794,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +21833,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20914,8 +21872,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20947,8 +21911,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20980,8 +21950,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21013,8 +21989,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21046,8 +22028,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21079,8 +22067,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +22103,17 @@
         <v>-7441643.172147071</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +22142,17 @@
         <v>-7560288.927147071</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +22181,17 @@
         <v>-7520039.727147071</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +22220,17 @@
         <v>-7586621.522147071</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +22259,17 @@
         <v>-7556084.007147071</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21277,8 +22301,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21310,8 +22340,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21343,8 +22379,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21376,8 +22418,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21409,8 +22457,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21442,8 +22496,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21475,8 +22535,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21508,8 +22574,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +22613,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21574,8 +22652,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21607,8 +22691,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21640,8 +22730,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21673,8 +22769,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21706,8 +22808,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21739,8 +22847,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21772,8 +22886,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21805,8 +22925,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21838,8 +22964,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +23000,17 @@
         <v>-7474013.444347071</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +23039,17 @@
         <v>-7518067.564347071</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +23078,17 @@
         <v>-7457493.149347071</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +23117,17 @@
         <v>-7531584.16934707</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +23156,17 @@
         <v>-7606175.80434707</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +23195,17 @@
         <v>-7652732.99934707</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +23234,17 @@
         <v>-7713808.02934707</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22099,11 +23273,17 @@
         <v>-7636801.427347071</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +23312,17 @@
         <v>-7668340.172347071</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22165,11 +23351,17 @@
         <v>-7526165.512347071</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22198,11 +23390,17 @@
         <v>-7590744.84734707</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +23429,17 @@
         <v>-7590744.84734707</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22264,11 +23468,17 @@
         <v>-7531171.662347071</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +23507,17 @@
         <v>-7697089.432647071</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +23546,17 @@
         <v>-7624500.257647071</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +23585,17 @@
         <v>-7690581.437647071</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22396,11 +23624,17 @@
         <v>-7744647.857647071</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +23663,17 @@
         <v>-7699091.892647071</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +23702,17 @@
         <v>-7755160.772647071</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22495,11 +23741,17 @@
         <v>-7754824.359647071</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +23780,17 @@
         <v>-7805386.474647071</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22561,11 +23819,17 @@
         <v>-7727290.534647071</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22597,8 +23861,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22630,8 +23900,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22663,8 +23939,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22696,8 +23978,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22729,8 +24017,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22762,8 +24056,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22795,8 +24095,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22828,8 +24134,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22861,8 +24173,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22894,8 +24212,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22927,8 +24251,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22960,8 +24290,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22993,8 +24329,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23026,8 +24368,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23059,8 +24407,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23092,8 +24446,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23125,8 +24485,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23158,8 +24524,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23191,8 +24563,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23224,8 +24602,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23257,8 +24641,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23290,8 +24680,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23323,8 +24719,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23356,8 +24758,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23389,8 +24797,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23422,8 +24836,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23455,8 +24875,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23488,8 +24914,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23521,8 +24953,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23554,8 +24992,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23587,8 +25031,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23620,8 +25070,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23653,8 +25109,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23686,8 +25148,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23719,8 +25187,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23752,8 +25226,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23785,8 +25265,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23818,8 +25304,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23848,15 +25340,17 @@
         <v>-8245139.520394194</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>3.474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="K711" t="inlineStr"/>
+        <v>3.446</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23889,11 +25383,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>3.474</v>
+        <v>3.446</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L712" t="n">
@@ -23928,11 +25422,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>3.474</v>
+        <v>3.446</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L713" t="n">
@@ -23966,8 +25460,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23999,8 +25499,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24032,8 +25538,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24065,8 +25577,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24098,8 +25616,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24131,8 +25655,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24164,8 +25694,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24197,8 +25733,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24230,8 +25772,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24263,8 +25811,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24293,15 +25847,17 @@
         <v>-8182638.738394193</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>3.473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>3.473</v>
-      </c>
-      <c r="K724" t="inlineStr"/>
+        <v>3.446</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24330,17 +25886,15 @@
         <v>-8233701.468394194</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>3.478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>3.473</v>
+        <v>3.446</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L725" t="n">
@@ -24375,11 +25929,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>3.473</v>
+        <v>3.446</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L726" t="n">
@@ -24413,8 +25967,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24446,8 +26006,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24479,8 +26045,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24512,8 +26084,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24545,8 +26123,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24578,8 +26162,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24611,8 +26201,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24644,8 +26240,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24677,8 +26279,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24710,8 +26318,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24743,8 +26357,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24776,8 +26396,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24809,8 +26435,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24842,8 +26474,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24875,8 +26513,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24908,8 +26552,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24941,8 +26591,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24974,8 +26630,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25007,8 +26669,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25040,8 +26708,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25073,8 +26747,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25106,8 +26786,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25139,8 +26825,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25172,8 +26864,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25205,8 +26903,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25238,8 +26942,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25271,8 +26981,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25304,8 +27020,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25337,8 +27059,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25370,8 +27098,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25403,8 +27137,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25436,8 +27176,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25469,8 +27215,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25502,8 +27254,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25535,8 +27293,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25568,8 +27332,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25601,8 +27371,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25634,8 +27410,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25667,8 +27449,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25700,8 +27488,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25733,8 +27527,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25766,8 +27566,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25799,8 +27605,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25832,8 +27644,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25865,8 +27683,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25898,8 +27722,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25931,8 +27761,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25964,8 +27800,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25997,8 +27839,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26030,8 +27878,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26063,8 +27917,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26096,8 +27956,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26129,8 +27995,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26162,8 +28034,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26195,8 +28073,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26228,8 +28112,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26261,8 +28151,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26294,8 +28190,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26327,8 +28229,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26360,8 +28268,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26393,8 +28307,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26426,8 +28346,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26459,8 +28385,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26492,8 +28424,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26525,8 +28463,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26558,8 +28502,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26591,8 +28541,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26624,8 +28580,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26654,15 +28616,17 @@
         <v>-8391630.877112225</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>3.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="K795" t="inlineStr"/>
+        <v>3.446</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26691,17 +28655,15 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>3.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>3.48</v>
+        <v>3.446</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L796" t="n">
@@ -26732,17 +28694,15 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>3.482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>3.48</v>
+        <v>3.446</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L797" t="n">
@@ -26773,15 +28733,17 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>3.482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>3.482</v>
-      </c>
-      <c r="K798" t="inlineStr"/>
+        <v>3.446</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26810,17 +28772,15 @@
         <v>-8255539.780512225</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>3.482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L799" t="n">
@@ -26851,13 +28811,11 @@
         <v>-8321584.060512225</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>3.481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -26892,13 +28850,11 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>3.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -26933,13 +28889,11 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>3.481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -26974,13 +28928,11 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>3.481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -27015,13 +28967,11 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>3.481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -27056,13 +29006,11 @@
         <v>-8320558.230512225</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>3.481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -27097,13 +29045,11 @@
         <v>-8220558.230512225</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>3.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -27138,13 +29084,11 @@
         <v>-8100175.668912225</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>3.481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -27185,7 +29129,7 @@
         <v>3.482</v>
       </c>
       <c r="J808" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -27226,7 +29170,7 @@
         <v>3.481</v>
       </c>
       <c r="J809" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -27267,7 +29211,7 @@
         <v>3.481</v>
       </c>
       <c r="J810" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -27308,7 +29252,7 @@
         <v>3.479</v>
       </c>
       <c r="J811" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -27349,7 +29293,7 @@
         <v>3.477</v>
       </c>
       <c r="J812" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -27390,7 +29334,7 @@
         <v>3.477</v>
       </c>
       <c r="J813" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -27431,7 +29375,7 @@
         <v>3.476</v>
       </c>
       <c r="J814" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -27472,7 +29416,7 @@
         <v>3.472</v>
       </c>
       <c r="J815" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -27513,7 +29457,7 @@
         <v>3.475</v>
       </c>
       <c r="J816" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -27554,7 +29498,7 @@
         <v>3.473</v>
       </c>
       <c r="J817" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -27595,7 +29539,7 @@
         <v>3.475</v>
       </c>
       <c r="J818" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -27636,7 +29580,7 @@
         <v>3.476</v>
       </c>
       <c r="J819" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -27677,7 +29621,7 @@
         <v>3.476</v>
       </c>
       <c r="J820" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -27718,7 +29662,7 @@
         <v>3.487</v>
       </c>
       <c r="J821" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -27759,7 +29703,7 @@
         <v>3.481</v>
       </c>
       <c r="J822" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -27800,7 +29744,7 @@
         <v>3.486</v>
       </c>
       <c r="J823" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -27841,7 +29785,7 @@
         <v>3.483</v>
       </c>
       <c r="J824" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -27882,7 +29826,7 @@
         <v>3.481</v>
       </c>
       <c r="J825" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -27923,7 +29867,7 @@
         <v>3.477</v>
       </c>
       <c r="J826" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -27964,7 +29908,7 @@
         <v>3.482</v>
       </c>
       <c r="J827" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28005,7 +29949,7 @@
         <v>3.481</v>
       </c>
       <c r="J828" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28046,7 +29990,7 @@
         <v>3.48</v>
       </c>
       <c r="J829" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28087,7 +30031,7 @@
         <v>3.479</v>
       </c>
       <c r="J830" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -28128,7 +30072,7 @@
         <v>3.478</v>
       </c>
       <c r="J831" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -28169,7 +30113,7 @@
         <v>3.478</v>
       </c>
       <c r="J832" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -28210,7 +30154,7 @@
         <v>3.48</v>
       </c>
       <c r="J833" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -28251,7 +30195,7 @@
         <v>3.483</v>
       </c>
       <c r="J834" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -28292,7 +30236,7 @@
         <v>3.482</v>
       </c>
       <c r="J835" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28333,7 +30277,7 @@
         <v>3.479</v>
       </c>
       <c r="J836" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28374,7 +30318,7 @@
         <v>3.48</v>
       </c>
       <c r="J837" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28415,7 +30359,7 @@
         <v>3.483</v>
       </c>
       <c r="J838" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -28456,7 +30400,7 @@
         <v>3.483</v>
       </c>
       <c r="J839" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -28497,7 +30441,7 @@
         <v>3.482</v>
       </c>
       <c r="J840" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -28538,7 +30482,7 @@
         <v>3.481</v>
       </c>
       <c r="J841" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -28579,7 +30523,7 @@
         <v>3.481</v>
       </c>
       <c r="J842" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -28620,7 +30564,7 @@
         <v>3.482</v>
       </c>
       <c r="J843" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -28661,7 +30605,7 @@
         <v>3.481</v>
       </c>
       <c r="J844" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -28702,7 +30646,7 @@
         <v>3.48</v>
       </c>
       <c r="J845" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -28743,7 +30687,7 @@
         <v>3.481</v>
       </c>
       <c r="J846" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -28784,7 +30728,7 @@
         <v>3.482</v>
       </c>
       <c r="J847" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -28825,7 +30769,7 @@
         <v>3.482</v>
       </c>
       <c r="J848" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -28866,7 +30810,7 @@
         <v>3.481</v>
       </c>
       <c r="J849" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -28907,7 +30851,7 @@
         <v>3.481</v>
       </c>
       <c r="J850" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -28948,7 +30892,7 @@
         <v>3.481</v>
       </c>
       <c r="J851" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -28989,7 +30933,7 @@
         <v>3.481</v>
       </c>
       <c r="J852" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -29030,7 +30974,7 @@
         <v>3.481</v>
       </c>
       <c r="J853" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -29071,7 +31015,7 @@
         <v>3.481</v>
       </c>
       <c r="J854" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -29112,7 +31056,7 @@
         <v>3.481</v>
       </c>
       <c r="J855" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -29153,7 +31097,7 @@
         <v>3.485</v>
       </c>
       <c r="J856" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -29194,7 +31138,7 @@
         <v>3.485</v>
       </c>
       <c r="J857" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -29235,7 +31179,7 @@
         <v>3.487</v>
       </c>
       <c r="J858" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -29276,7 +31220,7 @@
         <v>3.485</v>
       </c>
       <c r="J859" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29317,7 +31261,7 @@
         <v>3.483</v>
       </c>
       <c r="J860" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29358,7 +31302,7 @@
         <v>3.482</v>
       </c>
       <c r="J861" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29399,7 +31343,7 @@
         <v>3.481</v>
       </c>
       <c r="J862" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29440,7 +31384,7 @@
         <v>3.481</v>
       </c>
       <c r="J863" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29481,7 +31425,7 @@
         <v>3.482</v>
       </c>
       <c r="J864" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29522,7 +31466,7 @@
         <v>3.486</v>
       </c>
       <c r="J865" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29563,7 +31507,7 @@
         <v>3.483</v>
       </c>
       <c r="J866" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29604,7 +31548,7 @@
         <v>3.486</v>
       </c>
       <c r="J867" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29645,7 +31589,7 @@
         <v>3.485</v>
       </c>
       <c r="J868" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29686,7 +31630,7 @@
         <v>3.482</v>
       </c>
       <c r="J869" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29727,7 +31671,7 @@
         <v>3.484</v>
       </c>
       <c r="J870" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29768,7 +31712,7 @@
         <v>3.485</v>
       </c>
       <c r="J871" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29809,7 +31753,7 @@
         <v>3.48</v>
       </c>
       <c r="J872" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29850,7 +31794,7 @@
         <v>3.485</v>
       </c>
       <c r="J873" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -29891,7 +31835,7 @@
         <v>3.482</v>
       </c>
       <c r="J874" t="n">
-        <v>3.482</v>
+        <v>3.446</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
